--- a/data/xlsx/Range.xlsx
+++ b/data/xlsx/Range.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -3274,6 +3274,844 @@
         <v>0</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>猛火計</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>4</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>チキ_ブレス_追加攻撃</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>チキ_ブレス_配置</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>チキ_ブレス_配置_竜族派生</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="n">
+        <v>2</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>チキ_ブレス_追加攻撃_飛行派生</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>チキ_ブレス_配置_飛行派生</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>氷の領域</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr"/>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/Range.xlsx
+++ b/data/xlsx/Range.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -3277,7 +3277,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>猛火計</t>
+          <t>四隅</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -3314,7 +3314,7 @@
         <v>2</v>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
         <v>2</v>
@@ -3338,13 +3338,13 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
         <v>4</v>
       </c>
       <c r="E104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
         <v>2</v>
@@ -3389,7 +3389,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>チキ_ブレス_追加攻撃</t>
+          <t>単体</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -3423,13 +3423,13 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3445,7 +3445,11 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr"/>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>猛火計</t>
+        </is>
+      </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
@@ -3477,638 +3481,2777 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D109" t="n">
+        <v>2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>4</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>カミラ_竜脈範囲_連携</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>3</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>カミラ_竜脈範囲_騎馬</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="n">
+        <v>2</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>カミラ_竜脈範囲_隠密</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>カミラ_竜脈範囲_重装</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr"/>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>3</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>カミラ_竜脈範囲_飛行</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="n">
+        <v>3</v>
+      </c>
+      <c r="C134" t="n">
+        <v>3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>3</v>
+      </c>
+      <c r="D135" t="n">
+        <v>3</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>カミラ_竜脈範囲_魔法</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr"/>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="n">
+        <v>2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>カミラ_竜脈範囲_気功</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>3</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
         <v>1</v>
       </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>チキ_ブレス_追加攻撃</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>チキ_ブレス_配置</t>
         </is>
       </c>
-      <c r="B110" t="n">
-        <v>0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr"/>
-      <c r="B111" t="n">
-        <v>0</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" t="n">
-        <v>2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr"/>
-      <c r="B112" t="n">
-        <v>0</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="n">
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
         <v>1</v>
       </c>
-      <c r="E112" t="n">
-        <v>0</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>チキ_ブレス_配置_竜族派生</t>
         </is>
       </c>
-      <c r="B113" t="n">
-        <v>0</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr"/>
-      <c r="B114" t="n">
-        <v>2</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0</v>
-      </c>
-      <c r="F114" t="n">
-        <v>2</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr"/>
-      <c r="B115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C115" t="n">
-        <v>2</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" t="n">
-        <v>2</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr"/>
-      <c r="B116" t="n">
-        <v>0</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="n">
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="n">
+        <v>2</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
         <v>1</v>
       </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>チキ_ブレス_追加攻撃_飛行派生</t>
         </is>
       </c>
-      <c r="B117" t="n">
-        <v>0</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr"/>
-      <c r="B118" t="n">
-        <v>0</v>
-      </c>
-      <c r="C118" t="n">
-        <v>2</v>
-      </c>
-      <c r="D118" t="n">
-        <v>2</v>
-      </c>
-      <c r="E118" t="n">
-        <v>2</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr"/>
-      <c r="B119" t="n">
-        <v>0</v>
-      </c>
-      <c r="C119" t="n">
-        <v>2</v>
-      </c>
-      <c r="D119" t="n">
-        <v>2</v>
-      </c>
-      <c r="E119" t="n">
-        <v>2</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr"/>
-      <c r="B120" t="n">
-        <v>0</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr"/>
-      <c r="B121" t="n">
-        <v>0</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0</v>
-      </c>
-      <c r="D121" t="n">
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr"/>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr"/>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr"/>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
         <v>1</v>
       </c>
-      <c r="E121" t="n">
-        <v>0</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>チキ_ブレス_配置_飛行派生</t>
         </is>
       </c>
-      <c r="B122" t="n">
-        <v>0</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr"/>
-      <c r="B123" t="n">
-        <v>0</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0</v>
-      </c>
-      <c r="D123" t="n">
-        <v>2</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr"/>
-      <c r="B124" t="n">
-        <v>0</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0</v>
-      </c>
-      <c r="D124" t="n">
-        <v>2</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr"/>
-      <c r="B125" t="n">
-        <v>0</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0</v>
-      </c>
-      <c r="D125" t="n">
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr"/>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr"/>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
         <v>1</v>
       </c>
-      <c r="E125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ディザスター</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr"/>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>2</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr"/>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr"/>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ディザスター＋</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr"/>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr"/>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2</v>
+      </c>
+      <c r="D173" t="n">
+        <v>4</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr"/>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>竜脈_爆</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr"/>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr"/>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>2</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr"/>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr"/>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>竜脈_爆_竜族</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr"/>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr"/>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr"/>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr"/>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>竜脈_絆</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr"/>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr"/>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr"/>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr"/>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr"/>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>竜脈_絆_竜族</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr"/>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2</v>
+      </c>
+      <c r="G194" t="n">
+        <v>2</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr"/>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2</v>
+      </c>
+      <c r="G195" t="n">
+        <v>2</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr"/>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2</v>
+      </c>
+      <c r="G196" t="n">
+        <v>2</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr"/>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr"/>
+      <c r="B198" t="n">
+        <v>0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2</v>
+      </c>
+      <c r="G198" t="n">
+        <v>2</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>竜脈_アロマ</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr"/>
+      <c r="B200" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr"/>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr"/>
+      <c r="B202" t="n">
+        <v>0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>2</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
         <is>
           <t>氷の領域</t>
         </is>
       </c>
-      <c r="B126" t="n">
-        <v>0</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr"/>
-      <c r="B127" t="n">
-        <v>0</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" t="n">
-        <v>2</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr"/>
-      <c r="B128" t="n">
-        <v>0</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" t="n">
-        <v>2</v>
-      </c>
-      <c r="E128" t="n">
-        <v>2</v>
-      </c>
-      <c r="F128" t="n">
-        <v>2</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr"/>
-      <c r="B129" t="n">
-        <v>0</v>
-      </c>
-      <c r="C129" t="n">
-        <v>2</v>
-      </c>
-      <c r="D129" t="n">
-        <v>2</v>
-      </c>
-      <c r="E129" t="n">
+      <c r="B203" t="n">
+        <v>0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr"/>
+      <c r="B204" t="n">
+        <v>0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>2</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr"/>
+      <c r="B205" t="n">
+        <v>0</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>2</v>
+      </c>
+      <c r="E205" t="n">
+        <v>2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr"/>
+      <c r="B206" t="n">
+        <v>0</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2</v>
+      </c>
+      <c r="D206" t="n">
+        <v>2</v>
+      </c>
+      <c r="E206" t="n">
         <v>4</v>
       </c>
-      <c r="F129" t="n">
-        <v>2</v>
-      </c>
-      <c r="G129" t="n">
-        <v>2</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr"/>
-      <c r="B130" t="n">
-        <v>0</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0</v>
-      </c>
-      <c r="D130" t="n">
-        <v>2</v>
-      </c>
-      <c r="E130" t="n">
-        <v>2</v>
-      </c>
-      <c r="F130" t="n">
-        <v>2</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr"/>
-      <c r="B131" t="n">
-        <v>0</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" t="n">
-        <v>2</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
+      <c r="F206" t="n">
+        <v>2</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr"/>
+      <c r="B207" t="n">
+        <v>0</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2</v>
+      </c>
+      <c r="E207" t="n">
+        <v>2</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr"/>
+      <c r="B208" t="n">
+        <v>0</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>2</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
